--- a/tests/Result/Result_Xlsx_test_login.xlsx
+++ b/tests/Result/Result_Xlsx_test_login.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/tests/Result/Result_Xlsx_test_login.xlsx
+++ b/tests/Result/Result_Xlsx_test_login.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
